--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/9TetherbetDataDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/9TetherbetDataDuplicateGamesList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  Elements</t>
   </si>
@@ -92,7 +92,7 @@
     <t>26  This game has duplicate Please check it :  Name =  El Paso Gunfight xNudge</t>
   </si>
   <si>
-    <t>27  This game has duplicate Please check it :  Name =  Epic Riches</t>
+    <t>27  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
     <t>28  This game has duplicate Please check it :  Name =  European Roulette</t>
@@ -122,142 +122,100 @@
     <t>36  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>37  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Faith</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Fat Rabbit</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Fire In The Hole xBomb</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Fishin' for Gold</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Fruits</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Ghosts N Gold</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Gladiators Go Wild</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Golden Buffalo Double Up</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Golden Tiger</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Hot Spin Deluxe</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+    <t>37  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Faith</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Fat Rabbit</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Fire In The Hole xBomb</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Ghosts N Gold</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Gladiators Go Wild</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Golden Buffalo Double Up</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Golden Tiger</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Hot Spin Deluxe</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Joker Poker</t>
   </si>
   <si>
     <t>50  This game has duplicate Please check it :  Name =  Joker Poker</t>
   </si>
   <si>
-    <t>51  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  King of the Trident Deluxe</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Legend of the Four Beasts</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Luxor</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  MegaBoy</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Merlin's Magic Mirror</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  Monkey's Gold xPays</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  Oktoberfest</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Owls</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Raging Dragons</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Raging Reindeer</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  Roo Riches</t>
-  </si>
-  <si>
-    <t>69  This game has duplicate Please check it :  Name =  SamanthaFox</t>
-  </si>
-  <si>
-    <t>70  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
-  </si>
-  <si>
-    <t>71  This game has duplicate Please check it :  Name =  Sea of Riches</t>
-  </si>
-  <si>
-    <t>72  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
-  </si>
-  <si>
-    <t>73  This game has duplicate Please check it :  Name =  The Ruby Megaways</t>
-  </si>
-  <si>
-    <t>74  This game has duplicate Please check it :  Name =  Thunder Shields</t>
-  </si>
-  <si>
-    <t>75  This game has duplicate Please check it :  Name =  Titan’s Riches</t>
-  </si>
-  <si>
-    <t>76  This game has duplicate Please check it :  Name =  Tomahawk</t>
-  </si>
-  <si>
-    <t>77  This game has duplicate Please check it :  Name =  Tombstone</t>
-  </si>
-  <si>
-    <t>78  This game has duplicate Please check it :  Name =  Wild Ape</t>
-  </si>
-  <si>
-    <t>79  This game has duplicate Please check it :  Name =  Winterberries</t>
-  </si>
-  <si>
-    <t>80  This game has duplicate Please check it :  Name =  Wishing Wheel</t>
-  </si>
-  <si>
-    <t>81  This game has duplicate Please check it :  Name =  Wixx</t>
-  </si>
-  <si>
-    <t>82  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
+    <t>51  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  MegaBoy</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  Merlin's Magic Mirror</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Monkey's Gold xPays</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  Oktoberfest</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  Owls</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  Raging Reindeer</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  Roo Riches</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  Thunder Shields</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  Tomahawk</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  Tombstone</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  Wild Ape</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  Wixx</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
   </si>
 </sst>
 </file>
@@ -302,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -651,76 +609,6 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/9TetherbetDataDuplicateGamesList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/9TetherbetDataDuplicateGamesList.xlsx
@@ -12,210 +12,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>1  This game has duplicate Please check it :  Name =  Elements</t>
-  </si>
-  <si>
-    <t>2  This game has duplicate Please check it :  Name =  Football</t>
-  </si>
-  <si>
-    <t>3  This game has duplicate Please check it :  Name =  Atlantis</t>
-  </si>
-  <si>
-    <t>4  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>5  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>6  This game has duplicate Please check it :  Name =  Baccarat</t>
-  </si>
-  <si>
-    <t>7  This game has duplicate Please check it :  Name =  Baccarat VIP</t>
-  </si>
-  <si>
-    <t>8  This game has duplicate Please check it :  Name =  Bier Party</t>
-  </si>
-  <si>
-    <t>9  This game has duplicate Please check it :  Name =  Black Jack</t>
-  </si>
-  <si>
-    <t>10  This game has duplicate Please check it :  Name =  Blackjack</t>
-  </si>
-  <si>
-    <t>11  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
-  </si>
-  <si>
-    <t>12  This game has duplicate Please check it :  Name =  Bloodshot: Rising Spirit</t>
-  </si>
-  <si>
-    <t>13  This game has duplicate Please check it :  Name =  Buffalo Hunter</t>
-  </si>
-  <si>
-    <t>14  This game has duplicate Please check it :  Name =  Bushido Ways xNudge</t>
-  </si>
-  <si>
-    <t>15  This game has duplicate Please check it :  Name =  Caligula</t>
-  </si>
-  <si>
-    <t>16  This game has duplicate Please check it :  Name =  Carol of the Elves</t>
-  </si>
-  <si>
-    <t>17  This game has duplicate Please check it :  Name =  Cats</t>
-  </si>
-  <si>
-    <t>18  This game has duplicate Please check it :  Name =  ChineseNewYear</t>
-  </si>
-  <si>
-    <t>19  This game has duplicate Please check it :  Name =  Deadwood</t>
-  </si>
-  <si>
-    <t>20  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>21  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>22  This game has duplicate Please check it :  Name =  Deuces Wild</t>
-  </si>
-  <si>
-    <t>23  This game has duplicate Please check it :  Name =  Dragon Stone</t>
-  </si>
-  <si>
-    <t>24  This game has duplicate Please check it :  Name =  East Coast vs West Coast</t>
-  </si>
-  <si>
-    <t>25  This game has duplicate Please check it :  Name =  Egyptian King</t>
-  </si>
-  <si>
-    <t>26  This game has duplicate Please check it :  Name =  El Paso Gunfight xNudge</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>1  This game has duplicate Please check it :  Name =  Football</t>
+  </si>
+  <si>
+    <t>2  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>3  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  Bloodshot: Rising Spirit</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  Buffalo Hunter</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  Bushido Ways xNudge</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  Caligula</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  ChineseNewYear</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  Deadwood</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  Deuces Wild</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  Dragon Stone</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  East Coast vs West Coast</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  Egyptian King</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  El Paso Gunfight xNudge</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
     <t>27  This game has duplicate Please check it :  Name =  European Roulette</t>
   </si>
   <si>
-    <t>28  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>29  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>30  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>31  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>32  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>33  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>34  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>35  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>36  This game has duplicate Please check it :  Name =  European Roulette</t>
-  </si>
-  <si>
-    <t>37  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
-  </si>
-  <si>
-    <t>38  This game has duplicate Please check it :  Name =  Faith</t>
-  </si>
-  <si>
-    <t>39  This game has duplicate Please check it :  Name =  Fat Rabbit</t>
-  </si>
-  <si>
-    <t>40  This game has duplicate Please check it :  Name =  Fire In The Hole xBomb</t>
-  </si>
-  <si>
-    <t>41  This game has duplicate Please check it :  Name =  Fruits</t>
-  </si>
-  <si>
-    <t>42  This game has duplicate Please check it :  Name =  Ghosts N Gold</t>
-  </si>
-  <si>
-    <t>43  This game has duplicate Please check it :  Name =  Gladiators Go Wild</t>
-  </si>
-  <si>
-    <t>44  This game has duplicate Please check it :  Name =  Golden Buffalo Double Up</t>
-  </si>
-  <si>
-    <t>45  This game has duplicate Please check it :  Name =  Golden Tiger</t>
-  </si>
-  <si>
-    <t>46  This game has duplicate Please check it :  Name =  Hot Spin Deluxe</t>
-  </si>
-  <si>
-    <t>47  This game has duplicate Please check it :  Name =  Jacks or Better</t>
-  </si>
-  <si>
-    <t>48  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>49  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>50  This game has duplicate Please check it :  Name =  Joker Poker</t>
-  </si>
-  <si>
-    <t>51  This game has duplicate Please check it :  Name =  Lucky Clover</t>
-  </si>
-  <si>
-    <t>52  This game has duplicate Please check it :  Name =  MegaBoy</t>
-  </si>
-  <si>
-    <t>53  This game has duplicate Please check it :  Name =  Merlin's Magic Mirror</t>
-  </si>
-  <si>
-    <t>54  This game has duplicate Please check it :  Name =  Monkey's Gold xPays</t>
-  </si>
-  <si>
-    <t>55  This game has duplicate Please check it :  Name =  Oktoberfest</t>
-  </si>
-  <si>
-    <t>56  This game has duplicate Please check it :  Name =  Owls</t>
-  </si>
-  <si>
-    <t>57  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
-  </si>
-  <si>
-    <t>58  This game has duplicate Please check it :  Name =  Raging Reindeer</t>
-  </si>
-  <si>
-    <t>59  This game has duplicate Please check it :  Name =  Red Dog</t>
-  </si>
-  <si>
-    <t>60  This game has duplicate Please check it :  Name =  Roo Riches</t>
-  </si>
-  <si>
-    <t>61  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
-  </si>
-  <si>
-    <t>62  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
-  </si>
-  <si>
-    <t>63  This game has duplicate Please check it :  Name =  Thunder Shields</t>
-  </si>
-  <si>
-    <t>64  This game has duplicate Please check it :  Name =  Tomahawk</t>
-  </si>
-  <si>
-    <t>65  This game has duplicate Please check it :  Name =  Tombstone</t>
-  </si>
-  <si>
-    <t>66  This game has duplicate Please check it :  Name =  Wild Ape</t>
-  </si>
-  <si>
-    <t>67  This game has duplicate Please check it :  Name =  Wixx</t>
-  </si>
-  <si>
-    <t>68  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
+    <t>28  This game has duplicate Please check it :  Name =  European Roulette VIP</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Faith</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Fire In The Hole xBomb</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Ghosts N Gold</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Gladiators Go Wild</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Golden Buffalo Double Up</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Golden Tiger</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Hot Spin Deluxe</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Joker Poker</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Lucky Clover</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Merlin's Magic Mirror</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Monkey's Gold xPays</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Oktoberfest</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Owls</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Pyramid Pays</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Raging Reindeer</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Red Dog</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Roo Riches</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  San Quentin xWays</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  TalesOfDarkness</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  Thunder Shields</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  Tomahawk</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  Tombstone</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  Wild Ape</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  Wixx</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  xWays Hoarder xSplit</t>
   </si>
 </sst>
 </file>
@@ -260,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -554,61 +521,6 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
